--- a/classeursExcel/AnalyseParametresRecuit.xlsx
+++ b/classeursExcel/AnalyseParametresRecuit.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\4a\Optimisation Discrete\Quadratic_assignement_problem\classeursExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AA21ED-2D7D-497B-BEEE-432583AA1F5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCF9DEC-84AE-45A2-B6FF-90AA0762F20A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="1395" windowWidth="17025" windowHeight="11385" activeTab="1" xr2:uid="{43AB82B3-61D6-461D-9963-CC8462490EC4}"/>
+    <workbookView xWindow="630" yWindow="2670" windowWidth="15555" windowHeight="11385" activeTab="2" xr2:uid="{43AB82B3-61D6-461D-9963-CC8462490EC4}"/>
   </bookViews>
   <sheets>
     <sheet name="p" sheetId="1" r:id="rId1"/>
     <sheet name="mu" sheetId="2" r:id="rId2"/>
+    <sheet name="nbSteps" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>test pour n=40</t>
   </si>
@@ -87,6 +88,15 @@
   <si>
     <t>0.999</t>
   </si>
+  <si>
+    <t>pas maximum et moyen de découverte de la meilleure solution selon nbSteps</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>pas maximum</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +121,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,10 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2027,6 +2051,678 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Pas moyen et pas maximum de découverte de la meilleure solution sur 5 essais selon la dimension n.</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Recuit</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> simulé avec mu=0,9 et p=0,5</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>pas moyen</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nbSteps!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nbSteps!$B$3:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3448</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4424</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF6A-4757-AD9A-DAB74747D9C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>pas maximum</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>nbSteps!$A$3:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nbSteps!$C$3:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12346</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46072</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF6A-4757-AD9A-DAB74747D9C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="586234616"/>
+        <c:axId val="586230680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="586234616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>dimension n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586230680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586230680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>nombre d'itérations (pas)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586234616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2187,6 +2883,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4194,6 +4930,557 @@
       <a:ln>
         <a:noFill/>
       </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -4357,6 +5644,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A8AC64-FEA9-4649-842C-04AEFDA960AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -4656,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544196D6-47DD-48EC-B76E-FE9E8727B4A0}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,7 +6076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A209F3-32BB-4071-9A46-CABD788F92D6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
@@ -4834,4 +6162,171 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1EED2B-7A9D-4A2F-BF16-F86F94C9F82C}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>552</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2">
+        <v>287</v>
+      </c>
+      <c r="C5" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>576</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2405</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>30</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3398</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3448</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4424</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9002</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25487</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>80</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35171</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2">
+        <v>76821</v>
+      </c>
+      <c r="C14" s="2">
+        <v>102120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>